--- a/.informations/Suivi/Gabarit pour le suivi de projet.xlsx
+++ b/.informations/Suivi/Gabarit pour le suivi de projet.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Projets\PROJ_4205B6_A18\Hymperia\Suivi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Desktop\Projet\hymperia\.informations\Suivi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1DCBBF-896D-46C1-B6B3-9EAE7AC4E776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gantt" sheetId="3" r:id="rId1"/>
-    <sheet name="T1.2" sheetId="1" r:id="rId2"/>
-    <sheet name="T1.1" sheetId="8" r:id="rId3"/>
+    <sheet name="Gantt" sheetId="17" r:id="rId1"/>
+    <sheet name="T1.5" sheetId="20" r:id="rId2"/>
+    <sheet name="T1.4" sheetId="19" r:id="rId3"/>
+    <sheet name="T1.3" sheetId="18" r:id="rId4"/>
+    <sheet name="T5.2" sheetId="16" r:id="rId5"/>
+    <sheet name="T5.1" sheetId="15" r:id="rId6"/>
+    <sheet name="T4" sheetId="14" r:id="rId7"/>
+    <sheet name="T3.2" sheetId="12" r:id="rId8"/>
+    <sheet name="T3.1" sheetId="11" r:id="rId9"/>
+    <sheet name="T3.3" sheetId="13" r:id="rId10"/>
+    <sheet name="T2" sheetId="10" r:id="rId11"/>
+    <sheet name="T1.2" sheetId="1" r:id="rId12"/>
+    <sheet name="T1.1" sheetId="8" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="64">
   <si>
     <t>titre</t>
   </si>
@@ -58,12 +69,6 @@
     <t>terminée</t>
   </si>
   <si>
-    <t>Produire la carte géo</t>
-  </si>
-  <si>
-    <t>En cours</t>
-  </si>
-  <si>
     <t>Reste</t>
   </si>
   <si>
@@ -106,9 +111,6 @@
     <t>assignée</t>
   </si>
   <si>
-    <t>Le graphique de la carte, les composants interactifs de déplacement et la fonctionnalité de déplacement</t>
-  </si>
-  <si>
     <t>Exploration des formes par Helix Toolkit</t>
   </si>
   <si>
@@ -178,22 +180,61 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
     <t>Prisme rectangulaire</t>
   </si>
   <si>
     <t>Sphère</t>
   </si>
   <si>
-    <t>Ajouter un prisme rectangulaire dans viewport 3D</t>
+    <t>Exploration des matériaux dans WPF ainsi que leur remplissage.</t>
+  </si>
+  <si>
+    <t>Ajouter une sphère dans le viewport 3D.</t>
+  </si>
+  <si>
+    <t>Ajouter un prisme rectangulaire dans le viewport 3D.</t>
+  </si>
+  <si>
+    <t>Developpement du modèle de données dans C#.</t>
+  </si>
+  <si>
+    <t>Exploration de la persistance des propriétés de Helix Toolkit et de WPF.</t>
+  </si>
+  <si>
+    <t>Développement de l'initialisation de la base de données.</t>
+  </si>
+  <si>
+    <t>Exploration de la sélection d'une forme dans le viewport 3D.</t>
+  </si>
+  <si>
+    <t>Déplacement d'une forme dans le viewport 3D.</t>
+  </si>
+  <si>
+    <t>Modification de la taille d'une forme dans le viewport 3D.</t>
+  </si>
+  <si>
+    <t>Pyramide rectangulaire</t>
+  </si>
+  <si>
+    <t>Cône</t>
+  </si>
+  <si>
+    <t>Ajouter une pyramide rectangulaire dans le viewport 3D.</t>
+  </si>
+  <si>
+    <t>Ajouter une cône dans le viewport 3D.</t>
+  </si>
+  <si>
+    <t>Cylindre</t>
+  </si>
+  <si>
+    <t>Ajouter un cylindre dans le viewport 3D.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,7 +335,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -572,30 +613,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81F231E-ECC6-4615-AA53-E53DCDBA52CD}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="88.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -607,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -616,38 +656,38 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="1"/>
       <c r="H2">
-        <f t="shared" ref="H2:H9" si="0">F2-G2</f>
+        <f>F2-G2</f>
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>9</v>
@@ -662,22 +702,22 @@
         <v>120</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
+        <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>7</v>
@@ -692,270 +732,308 @@
         <v>150</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f>F4-G4</f>
         <v>30</v>
       </c>
       <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43360</v>
+      </c>
+      <c r="F5">
+        <v>180</v>
+      </c>
+      <c r="H5">
+        <f>F5-G5</f>
+        <v>180</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43360</v>
+      </c>
+      <c r="F6">
+        <v>180</v>
+      </c>
+      <c r="H6">
+        <f>F6-G6</f>
+        <v>180</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43360</v>
+      </c>
+      <c r="F7">
+        <v>180</v>
+      </c>
+      <c r="H7">
+        <f>F7-G7</f>
+        <v>180</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="H5">
-        <f t="shared" si="0"/>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43356</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="7" t="s">
+      <c r="H8">
+        <f>F8-G8</f>
+        <v>300</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="H9">
+        <f>F9-G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="H6">
-        <f t="shared" si="0"/>
+      <c r="E10" s="1">
+        <v>43356</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="H10">
+        <f>F10-G10</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43356</v>
+      </c>
+      <c r="F11">
+        <v>300</v>
+      </c>
+      <c r="H11">
+        <f>F11-G11</f>
+        <v>300</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43356</v>
+      </c>
+      <c r="F12">
+        <v>180</v>
+      </c>
+      <c r="H12">
+        <f>F12-G12</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43356</v>
+      </c>
+      <c r="F13">
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <f>F13-G13</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14">
+        <f>F14-G14</f>
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>43357</v>
-      </c>
-      <c r="F9">
-        <v>300</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="H10">
-        <f t="shared" ref="H9:H17" si="1">F10-G10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>43357</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1">
-        <v>43357</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>43357</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ref="H13" si="2">F13-G13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43357</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>180</v>
+      </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <f>F15-G15</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>180</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <f>F16-G16</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
         <v>11</v>
       </c>
     </row>
@@ -965,42 +1043,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F86B9D-9F06-4B5A-921F-C51BA7A7A1DE}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2"/>
     </row>
@@ -1010,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1019,15 +1100,26 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1">
-        <v>43357</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+        <v>43356</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -1047,30 +1139,25 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="1">
-        <v>43357</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
@@ -1078,6 +1165,549 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E910657D-95DB-45C3-9DC7-178CD47A7A46}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18C1AD2-5A37-45B4-A514-CEF2D85E1A46}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
+        <v>43360</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1085,41 +1715,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CD2A39-FD95-4DFA-8736-7EA1F3FAF048}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2"/>
     </row>
@@ -1129,7 +1762,255 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
+        <v>43360</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B552421-CE0C-48CA-8F88-69DC1BC123C8}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
+        <v>43360</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CC7251-6A2D-42AA-9DDC-F01FB870BD74}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1140,18 +2021,16 @@
       <c r="C5" s="1">
         <v>43356</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="1">
-        <v>43356</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -1171,42 +2050,524 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="1">
-        <v>43356</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="1">
-        <v>43356</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02288DD3-A0D7-4BC0-BEB1-2AB78FBFD35B}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B48FF2B-8CB0-4734-855E-772C782D037F}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C831FF-1B62-4196-9119-8CD8FA805015}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B3B8BA-B754-401D-9053-5C2CF7CBA8D8}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1">
+        <v>43356</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
